--- a/core/StructureDefinition-be-address.xlsx
+++ b/core/StructureDefinition-be-address.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T20:25:53+00:00</t>
+    <t>2022-10-03T19:39:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
